--- a/Assessment/DataCaseScenario.xlsx
+++ b/Assessment/DataCaseScenario.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10119"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sufi/Desktop/DB/Assessment/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E29269-048A-8749-B696-5AD61E1523F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="760" windowWidth="18200" windowHeight="8500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
-    <sheet r:id="rId2" sheetId="2" name="Sheet2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -728,8 +733,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -785,47 +789,47 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -836,10 +840,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="0E2841"/>
@@ -877,71 +881,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -969,7 +973,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -992,11 +996,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -1005,13 +1009,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1021,7 +1025,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1030,7 +1034,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1039,7 +1043,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1047,10 +1051,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -1115,34 +1119,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" style="8" width="13.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="9.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="10.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="10.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="8" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="8" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="8" width="17.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="8" width="10.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="8" width="11.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="8" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="8" width="20.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="8" width="13.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="8" width="21.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="33">
+    <row r="1" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1187,7 +1191,7 @@
       </c>
       <c r="O1" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="46.5" customFormat="1" s="4">
+    <row r="2" spans="1:15" s="4" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>14</v>
       </c>
@@ -1232,7 +1236,7 @@
       </c>
       <c r="O2" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="46.5" customFormat="1" s="4">
+    <row r="3" spans="1:15" s="4" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>27</v>
       </c>
@@ -1277,7 +1281,7 @@
       </c>
       <c r="O3" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="46.5" customFormat="1" s="4">
+    <row r="4" spans="1:15" s="4" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>39</v>
       </c>
@@ -1322,7 +1326,7 @@
       </c>
       <c r="O4" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="46.5" customFormat="1" s="4">
+    <row r="5" spans="1:15" s="4" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>51</v>
       </c>
@@ -1367,7 +1371,7 @@
       </c>
       <c r="O5" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="46.5" customFormat="1" s="4">
+    <row r="6" spans="1:15" s="4" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>64</v>
       </c>
@@ -1412,7 +1416,7 @@
       </c>
       <c r="O6" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="46.5" customFormat="1" s="4">
+    <row r="7" spans="1:15" s="4" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>76</v>
       </c>
@@ -1457,7 +1461,7 @@
       </c>
       <c r="O7" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="46.5" customFormat="1" s="4">
+    <row r="8" spans="1:15" s="4" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>88</v>
       </c>
@@ -1502,7 +1506,7 @@
       </c>
       <c r="O8" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="46.5" customFormat="1" s="4">
+    <row r="9" spans="1:15" s="4" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>99</v>
       </c>
@@ -1547,7 +1551,7 @@
       </c>
       <c r="O9" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="46.5" customFormat="1" s="4">
+    <row r="10" spans="1:15" s="4" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>110</v>
       </c>
@@ -1592,7 +1596,7 @@
       </c>
       <c r="O10" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="46.5" customFormat="1" s="4">
+    <row r="11" spans="1:15" s="4" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>122</v>
       </c>
@@ -1637,7 +1641,7 @@
       </c>
       <c r="O11" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="46.5" customFormat="1" s="4">
+    <row r="12" spans="1:15" s="4" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>135</v>
       </c>
@@ -1682,7 +1686,7 @@
       </c>
       <c r="O12" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="46.5" customFormat="1" s="4">
+    <row r="13" spans="1:15" s="4" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>147</v>
       </c>
@@ -1727,7 +1731,7 @@
       </c>
       <c r="O13" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="46.5" customFormat="1" s="4">
+    <row r="14" spans="1:15" s="4" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>159</v>
       </c>
@@ -1772,7 +1776,7 @@
       </c>
       <c r="O14" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="46.5" customFormat="1" s="4">
+    <row r="15" spans="1:15" s="4" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>167</v>
       </c>
@@ -1817,7 +1821,7 @@
       </c>
       <c r="O15" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="39.75" customFormat="1" s="4">
+    <row r="16" spans="1:15" s="4" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>177</v>
       </c>
@@ -1862,7 +1866,7 @@
       </c>
       <c r="O16" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="39.75" customFormat="1" s="4">
+    <row r="17" spans="1:15" s="4" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>188</v>
       </c>
@@ -1907,7 +1911,7 @@
       </c>
       <c r="O17" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="39.75" customFormat="1" s="4">
+    <row r="18" spans="1:15" s="4" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>198</v>
       </c>
@@ -1952,7 +1956,7 @@
       </c>
       <c r="O18" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25" customFormat="1" s="4">
+    <row r="19" spans="1:15" s="4" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>208</v>
       </c>
@@ -1997,7 +2001,7 @@
       </c>
       <c r="O19" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25" customFormat="1" s="4">
+    <row r="20" spans="1:15" s="4" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>218</v>
       </c>
@@ -2042,7 +2046,7 @@
       </c>
       <c r="O20" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25" customFormat="1" s="4">
+    <row r="21" spans="1:15" s="4" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>228</v>
       </c>
@@ -2090,19 +2094,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Assessment/DataCaseScenario.xlsx
+++ b/Assessment/DataCaseScenario.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sufi/Desktop/DB/Assessment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E29269-048A-8749-B696-5AD61E1523F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{911AD2D7-D548-0243-BA8F-97713421D859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="760" windowWidth="18200" windowHeight="8500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,27 +43,6 @@
     <t>Zip Code</t>
   </si>
   <si>
-    <t>Favorite Book</t>
-  </si>
-  <si>
-    <t>Favorite Drink</t>
-  </si>
-  <si>
-    <t>Favorite Activity</t>
-  </si>
-  <si>
-    <t>Neighbour 1</t>
-  </si>
-  <si>
-    <t>Neighbour1Email</t>
-  </si>
-  <si>
-    <t>Neighbour 2</t>
-  </si>
-  <si>
-    <t>Neighbour2Email</t>
-  </si>
-  <si>
     <t>Person 1</t>
   </si>
   <si>
@@ -91,18 +70,6 @@
     <t>Outdoor Running</t>
   </si>
   <si>
-    <t>Neighbor A</t>
-  </si>
-  <si>
-    <t>neighborA@email.com</t>
-  </si>
-  <si>
-    <t>Neighbor B</t>
-  </si>
-  <si>
-    <t>neighborB@email.com</t>
-  </si>
-  <si>
     <t>Person 2</t>
   </si>
   <si>
@@ -127,18 +94,6 @@
     <t>Hiking</t>
   </si>
   <si>
-    <t>Neighbor C</t>
-  </si>
-  <si>
-    <t>neighborC@email.com</t>
-  </si>
-  <si>
-    <t>Neighbor D</t>
-  </si>
-  <si>
-    <t>neighborD@email.com</t>
-  </si>
-  <si>
     <t>Person 3</t>
   </si>
   <si>
@@ -163,18 +118,6 @@
     <t>Swimming</t>
   </si>
   <si>
-    <t>Neighbor E</t>
-  </si>
-  <si>
-    <t>neighborE@email.com</t>
-  </si>
-  <si>
-    <t>Neighbor F</t>
-  </si>
-  <si>
-    <t>neighborF@email.com</t>
-  </si>
-  <si>
     <t>Person 4</t>
   </si>
   <si>
@@ -202,18 +145,6 @@
     <t>Traveling</t>
   </si>
   <si>
-    <t>Neighbor G</t>
-  </si>
-  <si>
-    <t>neighborG@email.com</t>
-  </si>
-  <si>
-    <t>Neighbor H</t>
-  </si>
-  <si>
-    <t>neighborH@email.com</t>
-  </si>
-  <si>
     <t>Person 5</t>
   </si>
   <si>
@@ -238,18 +169,6 @@
     <t>Gardening</t>
   </si>
   <si>
-    <t>Neighbor I</t>
-  </si>
-  <si>
-    <t>neighborI@email.com</t>
-  </si>
-  <si>
-    <t>Neighbor J</t>
-  </si>
-  <si>
-    <t>neighborJ@email.com</t>
-  </si>
-  <si>
     <t>Person 6</t>
   </si>
   <si>
@@ -274,18 +193,6 @@
     <t>Reading</t>
   </si>
   <si>
-    <t>Neighbor K</t>
-  </si>
-  <si>
-    <t>neighborK@email.com</t>
-  </si>
-  <si>
-    <t>Neighbor L</t>
-  </si>
-  <si>
-    <t>neighborL@email.com</t>
-  </si>
-  <si>
     <t>Person 7</t>
   </si>
   <si>
@@ -307,18 +214,6 @@
     <t>Cycling</t>
   </si>
   <si>
-    <t>Neighbor M</t>
-  </si>
-  <si>
-    <t>neighborM@email.com</t>
-  </si>
-  <si>
-    <t>Neighbor N</t>
-  </si>
-  <si>
-    <t>neighborN@email.com</t>
-  </si>
-  <si>
     <t>Person 8</t>
   </si>
   <si>
@@ -340,18 +235,6 @@
     <t>Water</t>
   </si>
   <si>
-    <t>Neighbor O</t>
-  </si>
-  <si>
-    <t>neighborO@email.com</t>
-  </si>
-  <si>
-    <t>Neighbor P</t>
-  </si>
-  <si>
-    <t>neighborP@email.com</t>
-  </si>
-  <si>
     <t>Person 9</t>
   </si>
   <si>
@@ -376,18 +259,6 @@
     <t>Skiing</t>
   </si>
   <si>
-    <t>Neighbor Q</t>
-  </si>
-  <si>
-    <t>neighborQ@email.com</t>
-  </si>
-  <si>
-    <t>Neighbor R</t>
-  </si>
-  <si>
-    <t>neighborR@email.com</t>
-  </si>
-  <si>
     <t>Person 10</t>
   </si>
   <si>
@@ -415,18 +286,6 @@
     <t>Jogging</t>
   </si>
   <si>
-    <t>Neighbor S</t>
-  </si>
-  <si>
-    <t>neighborS@email.com</t>
-  </si>
-  <si>
-    <t>Neighbor T</t>
-  </si>
-  <si>
-    <t>neighborT@email.com</t>
-  </si>
-  <si>
     <t>Person 11</t>
   </si>
   <si>
@@ -451,18 +310,6 @@
     <t>Rock Climbing</t>
   </si>
   <si>
-    <t>Neighbor U</t>
-  </si>
-  <si>
-    <t>neighborU@email.com</t>
-  </si>
-  <si>
-    <t>Neighbor V</t>
-  </si>
-  <si>
-    <t>neighborV@email.com</t>
-  </si>
-  <si>
     <t>Person 12</t>
   </si>
   <si>
@@ -487,18 +334,6 @@
     <t>Yoga</t>
   </si>
   <si>
-    <t>Neighbor W</t>
-  </si>
-  <si>
-    <t>neighborW@email.com</t>
-  </si>
-  <si>
-    <t>Neighbor X</t>
-  </si>
-  <si>
-    <t>neighborX@email.com</t>
-  </si>
-  <si>
     <t>Person 13</t>
   </si>
   <si>
@@ -511,18 +346,6 @@
     <t>CF10 2NF</t>
   </si>
   <si>
-    <t>Neighbor Y</t>
-  </si>
-  <si>
-    <t>neighborY@email.com</t>
-  </si>
-  <si>
-    <t>Neighbor Z</t>
-  </si>
-  <si>
-    <t>neighborZ@email.com</t>
-  </si>
-  <si>
     <t>Person 14</t>
   </si>
   <si>
@@ -541,18 +364,6 @@
     <t>Running</t>
   </si>
   <si>
-    <t>Neighbor AA</t>
-  </si>
-  <si>
-    <t>neighborAA@email.com</t>
-  </si>
-  <si>
-    <t>Neighbor AB</t>
-  </si>
-  <si>
-    <t>neighborAB@email.com</t>
-  </si>
-  <si>
     <t>Person 15</t>
   </si>
   <si>
@@ -574,18 +385,6 @@
     <t>Iced Coffee</t>
   </si>
   <si>
-    <t>Neighbor AC</t>
-  </si>
-  <si>
-    <t>neighborAC@email.com</t>
-  </si>
-  <si>
-    <t>Neighbor AD</t>
-  </si>
-  <si>
-    <t>neighborAD@email.com</t>
-  </si>
-  <si>
     <t>Person 16</t>
   </si>
   <si>
@@ -604,18 +403,6 @@
     <t>The Future Ahead</t>
   </si>
   <si>
-    <t>Neighbor AE</t>
-  </si>
-  <si>
-    <t>neighborAE@email.com</t>
-  </si>
-  <si>
-    <t>Neighbor AF</t>
-  </si>
-  <si>
-    <t>neighborAF@email.com</t>
-  </si>
-  <si>
     <t>Person 17</t>
   </si>
   <si>
@@ -634,18 +421,6 @@
     <t>The Path to Glory</t>
   </si>
   <si>
-    <t>Neighbor AG</t>
-  </si>
-  <si>
-    <t>neighborAG@email.com</t>
-  </si>
-  <si>
-    <t>Neighbor AH</t>
-  </si>
-  <si>
-    <t>neighborAH@email.com</t>
-  </si>
-  <si>
     <t>Person 18</t>
   </si>
   <si>
@@ -664,18 +439,6 @@
     <t>Life’s Adventure</t>
   </si>
   <si>
-    <t>Neighbor AI</t>
-  </si>
-  <si>
-    <t>neighborAI@email.com</t>
-  </si>
-  <si>
-    <t>Neighbor AJ</t>
-  </si>
-  <si>
-    <t>neighborAJ@email.com</t>
-  </si>
-  <si>
     <t>Person 19</t>
   </si>
   <si>
@@ -694,18 +457,6 @@
     <t>Into the Wild</t>
   </si>
   <si>
-    <t>Neighbor AK</t>
-  </si>
-  <si>
-    <t>neighborAK@email.com</t>
-  </si>
-  <si>
-    <t>Neighbor AL</t>
-  </si>
-  <si>
-    <t>neighborAL@email.com</t>
-  </si>
-  <si>
     <t>Person 20</t>
   </si>
   <si>
@@ -718,16 +469,265 @@
     <t>CF10 3BC</t>
   </si>
   <si>
-    <t>Neighbor AM</t>
-  </si>
-  <si>
-    <t>neighborAM@email.com</t>
-  </si>
-  <si>
-    <t>Neighbor AN</t>
-  </si>
-  <si>
-    <t>neighborAN@email.com</t>
+    <t>Neighbour 1 Name</t>
+  </si>
+  <si>
+    <t>Neighbour 2 Name</t>
+  </si>
+  <si>
+    <t>Neighbour 2 Email</t>
+  </si>
+  <si>
+    <t>Neighbour 1 Email</t>
+  </si>
+  <si>
+    <t>Favourite Book</t>
+  </si>
+  <si>
+    <t>Favourite Drink</t>
+  </si>
+  <si>
+    <t>Favourite Activity</t>
+  </si>
+  <si>
+    <t>Neighbour A</t>
+  </si>
+  <si>
+    <t>Neighbour B</t>
+  </si>
+  <si>
+    <t>Neighbour C</t>
+  </si>
+  <si>
+    <t>Neighbour D</t>
+  </si>
+  <si>
+    <t>Neighbour E</t>
+  </si>
+  <si>
+    <t>Neighbour F</t>
+  </si>
+  <si>
+    <t>Neighbour G</t>
+  </si>
+  <si>
+    <t>Neighbour H</t>
+  </si>
+  <si>
+    <t>Neighbour I</t>
+  </si>
+  <si>
+    <t>Neighbour J</t>
+  </si>
+  <si>
+    <t>Neighbour K</t>
+  </si>
+  <si>
+    <t>Neighbour L</t>
+  </si>
+  <si>
+    <t>Neighbour M</t>
+  </si>
+  <si>
+    <t>Neighbour N</t>
+  </si>
+  <si>
+    <t>Neighbour O</t>
+  </si>
+  <si>
+    <t>Neighbour P</t>
+  </si>
+  <si>
+    <t>Neighbour Q</t>
+  </si>
+  <si>
+    <t>Neighbour R</t>
+  </si>
+  <si>
+    <t>Neighbour S</t>
+  </si>
+  <si>
+    <t>Neighbour T</t>
+  </si>
+  <si>
+    <t>Neighbour U</t>
+  </si>
+  <si>
+    <t>Neighbour V</t>
+  </si>
+  <si>
+    <t>Neighbour W</t>
+  </si>
+  <si>
+    <t>Neighbour X</t>
+  </si>
+  <si>
+    <t>Neighbour Y</t>
+  </si>
+  <si>
+    <t>Neighbour Z</t>
+  </si>
+  <si>
+    <t>Neighbour AA</t>
+  </si>
+  <si>
+    <t>Neighbour AB</t>
+  </si>
+  <si>
+    <t>Neighbour AC</t>
+  </si>
+  <si>
+    <t>Neighbour AD</t>
+  </si>
+  <si>
+    <t>Neighbour AE</t>
+  </si>
+  <si>
+    <t>Neighbour AF</t>
+  </si>
+  <si>
+    <t>Neighbour AG</t>
+  </si>
+  <si>
+    <t>Neighbour AH</t>
+  </si>
+  <si>
+    <t>Neighbour AI</t>
+  </si>
+  <si>
+    <t>Neighbour AJ</t>
+  </si>
+  <si>
+    <t>Neighbour AK</t>
+  </si>
+  <si>
+    <t>Neighbour AL</t>
+  </si>
+  <si>
+    <t>Neighbour AM</t>
+  </si>
+  <si>
+    <t>Neighbour AN</t>
+  </si>
+  <si>
+    <t>neighbourA@email.com</t>
+  </si>
+  <si>
+    <t>neighbourB@email.com</t>
+  </si>
+  <si>
+    <t>neighbourC@email.com</t>
+  </si>
+  <si>
+    <t>neighbourD@email.com</t>
+  </si>
+  <si>
+    <t>neighbourE@email.com</t>
+  </si>
+  <si>
+    <t>neighbourF@email.com</t>
+  </si>
+  <si>
+    <t>neighbourG@email.com</t>
+  </si>
+  <si>
+    <t>neighbourH@email.com</t>
+  </si>
+  <si>
+    <t>neighbourI@email.com</t>
+  </si>
+  <si>
+    <t>neighbourJ@email.com</t>
+  </si>
+  <si>
+    <t>neighbourK@email.com</t>
+  </si>
+  <si>
+    <t>neighbourL@email.com</t>
+  </si>
+  <si>
+    <t>neighbourM@email.com</t>
+  </si>
+  <si>
+    <t>neighbourN@email.com</t>
+  </si>
+  <si>
+    <t>neighbourO@email.com</t>
+  </si>
+  <si>
+    <t>neighbourP@email.com</t>
+  </si>
+  <si>
+    <t>neighbourQ@email.com</t>
+  </si>
+  <si>
+    <t>neighbourR@email.com</t>
+  </si>
+  <si>
+    <t>neighbourS@email.com</t>
+  </si>
+  <si>
+    <t>neighbourT@email.com</t>
+  </si>
+  <si>
+    <t>neighbourU@email.com</t>
+  </si>
+  <si>
+    <t>neighbourV@email.com</t>
+  </si>
+  <si>
+    <t>neighbourW@email.com</t>
+  </si>
+  <si>
+    <t>neighbourX@email.com</t>
+  </si>
+  <si>
+    <t>neighbourY@email.com</t>
+  </si>
+  <si>
+    <t>neighbourZ@email.com</t>
+  </si>
+  <si>
+    <t>neighbourAA@email.com</t>
+  </si>
+  <si>
+    <t>neighbourAB@email.com</t>
+  </si>
+  <si>
+    <t>neighbourAC@email.com</t>
+  </si>
+  <si>
+    <t>neighbourAD@email.com</t>
+  </si>
+  <si>
+    <t>neighbourAE@email.com</t>
+  </si>
+  <si>
+    <t>neighbourAF@email.com</t>
+  </si>
+  <si>
+    <t>neighbourAG@email.com</t>
+  </si>
+  <si>
+    <t>neighbourAH@email.com</t>
+  </si>
+  <si>
+    <t>neighbourAI@email.com</t>
+  </si>
+  <si>
+    <t>neighbourAJ@email.com</t>
+  </si>
+  <si>
+    <t>neighbourAK@email.com</t>
+  </si>
+  <si>
+    <t>neighbourAL@email.com</t>
+  </si>
+  <si>
+    <t>neighbourAM@email.com</t>
+  </si>
+  <si>
+    <t>neighbourAN@email.com</t>
   </si>
 </sst>
 </file>
@@ -1125,7 +1125,9 @@
   </sheetPr>
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1169,922 +1171,922 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>153</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>154</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>9</v>
+        <v>155</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>11</v>
+        <v>152</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>13</v>
+        <v>151</v>
       </c>
       <c r="O1" s="3"/>
     </row>
     <row r="2" spans="1:15" s="4" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C2" s="6">
         <v>34773</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>23</v>
+        <v>156</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>24</v>
+        <v>196</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>25</v>
+        <v>157</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>26</v>
+        <v>197</v>
       </c>
       <c r="O2" s="7"/>
     </row>
     <row r="3" spans="1:15" s="4" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C3" s="6">
         <v>34142</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>35</v>
+        <v>158</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>36</v>
+        <v>198</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>37</v>
+        <v>159</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>38</v>
+        <v>199</v>
       </c>
       <c r="O3" s="7"/>
     </row>
     <row r="4" spans="1:15" s="4" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C4" s="6">
         <v>33491</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>47</v>
+        <v>160</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>48</v>
+        <v>200</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>49</v>
+        <v>161</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>50</v>
+        <v>201</v>
       </c>
       <c r="O4" s="7"/>
     </row>
     <row r="5" spans="1:15" s="4" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="C5" s="6">
         <v>36134</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>60</v>
+        <v>162</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>61</v>
+        <v>202</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>62</v>
+        <v>163</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>63</v>
+        <v>203</v>
       </c>
       <c r="O5" s="7"/>
     </row>
     <row r="6" spans="1:15" s="4" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="C6" s="6">
         <v>30650</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>72</v>
+        <v>164</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>73</v>
+        <v>204</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>74</v>
+        <v>165</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>75</v>
+        <v>205</v>
       </c>
       <c r="O6" s="7"/>
     </row>
     <row r="7" spans="1:15" s="4" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="C7" s="6">
         <v>32707</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>85</v>
+        <v>206</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>86</v>
+        <v>167</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>87</v>
+        <v>207</v>
       </c>
       <c r="O7" s="7"/>
     </row>
     <row r="8" spans="1:15" s="4" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="C8" s="6">
         <v>35180</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>95</v>
+        <v>168</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>96</v>
+        <v>208</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>97</v>
+        <v>169</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>98</v>
+        <v>209</v>
       </c>
       <c r="O8" s="7"/>
     </row>
     <row r="9" spans="1:15" s="4" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="C9" s="6">
         <v>32882</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>106</v>
+        <v>170</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>107</v>
+        <v>210</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>108</v>
+        <v>171</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>109</v>
+        <v>211</v>
       </c>
       <c r="O9" s="7"/>
     </row>
     <row r="10" spans="1:15" s="4" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>110</v>
+        <v>71</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="C10" s="6">
         <v>34198</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>118</v>
+        <v>172</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>119</v>
+        <v>212</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>120</v>
+        <v>173</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>121</v>
+        <v>213</v>
       </c>
       <c r="O10" s="7"/>
     </row>
     <row r="11" spans="1:15" s="4" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>122</v>
+        <v>79</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>123</v>
+        <v>80</v>
       </c>
       <c r="C11" s="6">
         <v>35725</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>124</v>
+        <v>81</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>125</v>
+        <v>82</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>126</v>
+        <v>83</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>127</v>
+        <v>84</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>129</v>
+        <v>86</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>130</v>
+        <v>87</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>131</v>
+        <v>174</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>132</v>
+        <v>214</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>133</v>
+        <v>175</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>134</v>
+        <v>215</v>
       </c>
       <c r="O11" s="7"/>
     </row>
     <row r="12" spans="1:15" s="4" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>135</v>
+        <v>88</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>136</v>
+        <v>89</v>
       </c>
       <c r="C12" s="6">
         <v>33737</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>137</v>
+        <v>90</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>138</v>
+        <v>91</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>139</v>
+        <v>92</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>140</v>
+        <v>93</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>141</v>
+        <v>94</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>142</v>
+        <v>95</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>144</v>
+        <v>216</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>146</v>
+        <v>217</v>
       </c>
       <c r="O12" s="7"/>
     </row>
     <row r="13" spans="1:15" s="4" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>147</v>
+        <v>96</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>148</v>
+        <v>97</v>
       </c>
       <c r="C13" s="6">
         <v>31470</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>149</v>
+        <v>98</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>150</v>
+        <v>99</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>151</v>
+        <v>100</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>152</v>
+        <v>101</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>153</v>
+        <v>102</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>154</v>
+        <v>103</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>156</v>
+        <v>218</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>158</v>
+        <v>219</v>
       </c>
       <c r="O13" s="7"/>
     </row>
     <row r="14" spans="1:15" s="4" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>159</v>
+        <v>104</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="C14" s="6">
         <v>33567</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>161</v>
+        <v>106</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>125</v>
+        <v>82</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>126</v>
+        <v>83</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>162</v>
+        <v>107</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>164</v>
+        <v>220</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>166</v>
+        <v>221</v>
       </c>
       <c r="O14" s="7"/>
     </row>
     <row r="15" spans="1:15" s="4" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>167</v>
+        <v>108</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>168</v>
+        <v>109</v>
       </c>
       <c r="C15" s="6">
         <v>31809</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>169</v>
+        <v>110</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>170</v>
+        <v>111</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>171</v>
+        <v>112</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>172</v>
+        <v>113</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>174</v>
+        <v>222</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>176</v>
+        <v>223</v>
       </c>
       <c r="O15" s="7"/>
     </row>
     <row r="16" spans="1:15" s="4" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>177</v>
+        <v>114</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>178</v>
+        <v>115</v>
       </c>
       <c r="C16" s="6">
         <v>30906</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>179</v>
+        <v>116</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>180</v>
+        <v>117</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>181</v>
+        <v>118</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>182</v>
+        <v>119</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>183</v>
+        <v>120</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="K16" s="5" t="s">
         <v>184</v>
       </c>
       <c r="L16" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="M16" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="M16" s="5" t="s">
-        <v>186</v>
-      </c>
       <c r="N16" s="5" t="s">
-        <v>187</v>
+        <v>225</v>
       </c>
       <c r="O16" s="7"/>
     </row>
     <row r="17" spans="1:15" s="4" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>188</v>
+        <v>121</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>189</v>
+        <v>122</v>
       </c>
       <c r="C17" s="6">
         <v>32941</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>190</v>
+        <v>123</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>191</v>
+        <v>124</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>192</v>
+        <v>125</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>193</v>
+        <v>126</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>154</v>
+        <v>103</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>195</v>
+        <v>226</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>197</v>
+        <v>227</v>
       </c>
       <c r="O17" s="7"/>
     </row>
     <row r="18" spans="1:15" s="4" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>198</v>
+        <v>127</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>199</v>
+        <v>128</v>
       </c>
       <c r="C18" s="6">
         <v>35020</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>200</v>
+        <v>129</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>201</v>
+        <v>130</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>202</v>
+        <v>131</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>203</v>
+        <v>132</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>205</v>
+        <v>228</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="O18" s="7"/>
     </row>
     <row r="19" spans="1:15" s="4" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>208</v>
+        <v>133</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>209</v>
+        <v>134</v>
       </c>
       <c r="C19" s="6">
         <v>34505</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>210</v>
+        <v>135</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>211</v>
+        <v>136</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>212</v>
+        <v>137</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>213</v>
+        <v>138</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>216</v>
+        <v>191</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="O19" s="7"/>
     </row>
     <row r="20" spans="1:15" s="4" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>218</v>
+        <v>139</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>219</v>
+        <v>140</v>
       </c>
       <c r="C20" s="6">
         <v>33949</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>220</v>
+        <v>141</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>221</v>
+        <v>142</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>222</v>
+        <v>143</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>223</v>
+        <v>144</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>153</v>
+        <v>102</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>224</v>
+        <v>192</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>226</v>
+        <v>193</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="O20" s="7"/>
     </row>
     <row r="21" spans="1:15" s="4" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>228</v>
+        <v>145</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>229</v>
+        <v>146</v>
       </c>
       <c r="C21" s="6">
         <v>32411</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>230</v>
+        <v>147</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>125</v>
+        <v>82</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>126</v>
+        <v>83</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>231</v>
+        <v>148</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="N21" s="5" t="s">
         <v>235</v>

--- a/Assessment/DataCaseScenario.xlsx
+++ b/Assessment/DataCaseScenario.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sufi/Desktop/DB/Assessment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{911AD2D7-D548-0243-BA8F-97713421D859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACEC6F88-B2EF-9E42-8B66-BAE6FA29A193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1125,15 +1125,15 @@
   </sheetPr>
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.33203125" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.6640625" style="8" bestFit="1" customWidth="1"/>
